--- a/Powerbi_reports/eng_main_dataset.xlsx
+++ b/Powerbi_reports/eng_main_dataset.xlsx
@@ -483,39 +483,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>160260415.wav</t>
+          <t>161560999.wav</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>160260415</v>
+        <v>161560999</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0:01:41</t>
+          <t>0:01:46</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6358</v>
+        <v>6664</v>
       </c>
       <c r="F2" t="n">
-        <v>296118</v>
+        <v>298228</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Esraa Mohamed Abdelmonem Mahmoud</t>
+          <t>Nourhan Mohamed Arafa Esmail</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2023-10-08 11:13:51</t>
+          <t>2023-10-12 12:28:22</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t xml:space="preserve">line down first escalation </t>
+          <t>Physical Instability-First escalation</t>
         </is>
       </c>
     </row>

--- a/Powerbi_reports/eng_main_dataset.xlsx
+++ b/Powerbi_reports/eng_main_dataset.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,299 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>audio_filename</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>recordingID</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>CallDuration</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Audio_Size</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Call Category</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>AgentID</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Agent Name</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Call Date</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>language</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Sentiment</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>AgentPercentage</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CustomerPercentage</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CallOpeningScore</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CallClosingScore</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>159775973.wav</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>159775973</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0:01:44</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>6552</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>complaint</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>219726</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Hosni abd elhafez rashed mohamed</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2023-10-06 18:36:01</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>100.00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.2222222222222222</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>159830825.wav</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>159830825</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0:01:22</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>5127</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>hitting the company</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>67516</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Hossam Moawad Thabet Mohamed</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>2023-10-06 21:36:23</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>59.17</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>159385897.wav</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>159385897</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0:01:47</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>6700</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>normal calls</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>261800</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Huda Abdo Zaghloul Raslan</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>2023-10-05 13:59:28</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">line down first escalation </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>english</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>88.00</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>12.00</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>